--- a/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>-55,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>146,97%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,53</t>
+          <t>-10,34; 0,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,08</t>
+          <t>-4,63; 5,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,38</t>
+          <t>-0,83; 9,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,72</t>
+          <t>0,19; 11,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 90,9</t>
+          <t>-88,05; 25,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 110,22</t>
+          <t>-51,3; 153,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,9; 111,8</t>
+          <t>-24,71; 368,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,1; 163,77</t>
+          <t>-7,56; 745,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-55,74%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>146,97%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,85</t>
+          <t>-3,75; 4,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 5,93</t>
+          <t>-3,59; 4,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,39</t>
+          <t>-3,5; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 11,2</t>
+          <t>-2,55; 2,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-88,05; 25,24</t>
+          <t>-41,03; 90,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 153,72</t>
+          <t>-49,84; 110,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 368,14</t>
+          <t>-63,9; 111,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 745,07</t>
+          <t>-63,1; 163,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 5,19</t>
+          <t>-52,38; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,74%</t>
+          <t>-37,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>146,97%</t>
+          <t>77,34%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,85</t>
+          <t>-6,9; 2,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 5,93</t>
+          <t>-3,82; 9,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,39</t>
+          <t>-5,21; 5,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 11,2</t>
+          <t>-3,38; 8,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,05; 25,24</t>
+          <t>-100,0; 290,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 153,72</t>
+          <t>-53,85; 344,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 368,14</t>
+          <t>-100,0; 407,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 745,07</t>
+          <t>-72,0; 879,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>-51,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>78,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>111,11%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,53</t>
+          <t>-11,25; 0,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,08</t>
+          <t>-4,45; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,38</t>
+          <t>-0,63; 9,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,72</t>
+          <t>-0,36; 8,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 90,9</t>
+          <t>-82,1; 20,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 110,22</t>
+          <t>-59,4; 146,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,9; 111,8</t>
+          <t>-14,14; 288,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,1; 163,77</t>
+          <t>-16,17; 455,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>-33,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>-5,15%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,87</t>
+          <t>-3,36; 5,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,84</t>
+          <t>-5,3; 3,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,03</t>
+          <t>-4,15; 1,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,93</t>
+          <t>-2,8; 3,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 32,59</t>
+          <t>-37,25; 126,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 83,87</t>
+          <t>-59,44; 105,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 159,24</t>
+          <t>-89,48; 176,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 184,94</t>
+          <t>-73,0; 252,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-17,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 1,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 3,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 3,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-49,95; 34,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-32,12; 88,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,29; 148,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,3; 163,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 0,0</t>
+          <t>-56,19; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,82</t>
+          <t>-6,08; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 9,93</t>
+          <t>-3,6; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,77</t>
+          <t>-4,99; 5,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 8,42</t>
+          <t>-3,01; 8,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 290,17</t>
+          <t>-100,0; 163,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 344,66</t>
+          <t>-48,82; 374,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 407,28</t>
+          <t>-100,0; 481,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 879,94</t>
+          <t>-66,02; 873,94</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 0,51</t>
+          <t>-11,18; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,44</t>
+          <t>-4,7; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 9,15</t>
+          <t>-0,47; 9,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,73</t>
+          <t>-0,35; 8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,1; 20,94</t>
+          <t>-83,34; 22,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 146,86</t>
+          <t>-61,69; 166,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 288,18</t>
+          <t>-16,7; 322,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 455,02</t>
+          <t>-17,09; 471,49</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,96</t>
+          <t>-3,44; 6,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,86</t>
+          <t>-4,51; 4,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,44</t>
+          <t>-3,86; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,13</t>
+          <t>-2,8; 2,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 126,58</t>
+          <t>-37,97; 124,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 105,7</t>
+          <t>-57,95; 128,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 176,52</t>
+          <t>-88,3; 208,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,0; 252,53</t>
+          <t>-74,62; 228,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,89</t>
+          <t>-4,34; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,69</t>
+          <t>-2,16; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,94</t>
+          <t>-0,95; 3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,74</t>
+          <t>-0,62; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 34,26</t>
+          <t>-49,48; 34,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 88,49</t>
+          <t>-31,9; 95,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 148,52</t>
+          <t>-21,36; 149,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 163,44</t>
+          <t>-19,15; 168,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-13,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 0,0</t>
+          <t>-52,11; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>70,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,76</t>
+          <t>-6,65; 2,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 10,3</t>
+          <t>-3,19; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,69</t>
+          <t>-4,98; 5,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 8,58</t>
+          <t>-3,1; 8,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 163,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 374,84</t>
+          <t>-47,18; 319,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 481,11</t>
+          <t>-100,0; 593,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 873,94</t>
+          <t>-68,53; 944,46</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>111,11%</t>
+          <t>104,69%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 0,77</t>
+          <t>-10,7; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,47</t>
+          <t>-4,21; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,32</t>
+          <t>-1,05; 9,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 8,68</t>
+          <t>-0,99; 8,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 22,03</t>
+          <t>-82,23; 46,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 166,13</t>
+          <t>-57,49; 170,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 322,46</t>
+          <t>-20,49; 290,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 471,49</t>
+          <t>-32,12; 421,03</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,33</t>
+          <t>-3,81; 5,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,17</t>
+          <t>-4,9; 4,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,65</t>
+          <t>-3,78; 1,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,77</t>
+          <t>-2,71; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 124,28</t>
+          <t>-42,62; 105,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 128,56</t>
+          <t>-58,69; 128,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 208,54</t>
+          <t>-89,62; 218,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,62; 228,13</t>
+          <t>-71,08; 263,45</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>45,66%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,81</t>
+          <t>-4,16; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,75</t>
+          <t>-2,37; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,98</t>
+          <t>-1,23; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,84</t>
+          <t>-0,62; 4,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 34,22</t>
+          <t>-47,95; 32,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 95,49</t>
+          <t>-33,33; 83,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 149,47</t>
+          <t>-25,25; 159,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 168,51</t>
+          <t>-18,39; 191,18</t>
         </is>
       </c>
     </row>
